--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/master-feature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C7516E-470D-AD45-8E34-F8CFFB75F0B5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4E4D46-A5A9-664A-8BFD-8B29A9A85A03}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="460" windowWidth="27860" windowHeight="17040" xr2:uid="{39F276CE-BE49-5C4B-9383-AA7603E6C146}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>master 1</t>
   </si>
   <si>
-    <t>edited master 2</t>
+    <t>feature 2</t>
   </si>
 </sst>
 </file>
@@ -382,25 +382,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5E9425-C48D-5343-9FA6-D32222210CAF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/master-feature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E16F416C-6814-0C40-80AC-FB967F840778}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C7516E-470D-AD45-8E34-F8CFFB75F0B5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="460" windowWidth="27860" windowHeight="17040" xr2:uid="{39F276CE-BE49-5C4B-9383-AA7603E6C146}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>master 1</t>
+  </si>
+  <si>
+    <t>edited master 2</t>
   </si>
 </sst>
 </file>
@@ -382,25 +385,22 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
